--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H2">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2315733333333333</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>0.69472</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>0.2371078251520917</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P2">
-        <v>0.2371078251520917</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q2">
-        <v>3.090374925617778</v>
+        <v>0.4254171204906667</v>
       </c>
       <c r="R2">
-        <v>27.81337433056001</v>
+        <v>3.828754084416</v>
       </c>
       <c r="S2">
-        <v>0.0378881947692036</v>
+        <v>0.005434596902649329</v>
       </c>
       <c r="T2">
-        <v>0.0378881947692036</v>
+        <v>0.005434596902649328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H3">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q3">
-        <v>9.609761755186447</v>
+        <v>2.678241932122667</v>
       </c>
       <c r="R3">
-        <v>86.48785579667802</v>
+        <v>24.104177389104</v>
       </c>
       <c r="S3">
-        <v>0.1178162953782585</v>
+        <v>0.03421386824317695</v>
       </c>
       <c r="T3">
-        <v>0.1178162953782585</v>
+        <v>0.03421386824317694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H4">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I4">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J4">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02498966666666667</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N4">
-        <v>0.07496900000000001</v>
+        <v>0.100736</v>
       </c>
       <c r="O4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q4">
-        <v>0.3334902087152223</v>
+        <v>0.1248887319893333</v>
       </c>
       <c r="R4">
-        <v>3.001411878437001</v>
+        <v>1.123998587904</v>
       </c>
       <c r="S4">
-        <v>0.004088611345077765</v>
+        <v>0.001595422194720825</v>
       </c>
       <c r="T4">
-        <v>0.004088611345077765</v>
+        <v>0.001595422194720825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.15942766666667</v>
+        <v>3.719288</v>
       </c>
       <c r="H5">
-        <v>78.478283</v>
+        <v>11.157864</v>
       </c>
       <c r="I5">
-        <v>0.3132302087051684</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J5">
-        <v>0.3132302087051684</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2315733333333333</v>
+        <v>0.023457</v>
       </c>
       <c r="N5">
-        <v>0.69472</v>
+        <v>0.070371</v>
       </c>
       <c r="O5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q5">
-        <v>6.057825862862223</v>
+        <v>0.087243338616</v>
       </c>
       <c r="R5">
-        <v>54.52043276576001</v>
+        <v>0.785190047544</v>
       </c>
       <c r="S5">
-        <v>0.07426933355801828</v>
+        <v>0.001114511746194997</v>
       </c>
       <c r="T5">
-        <v>0.07426933355801828</v>
+        <v>0.001114511746194997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>78.478283</v>
       </c>
       <c r="I6">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J6">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7200953333333334</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N6">
-        <v>2.160286</v>
+        <v>0.343144</v>
       </c>
       <c r="O6">
-        <v>0.7373052671097876</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P6">
-        <v>0.7373052671097876</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q6">
-        <v>18.83728178543756</v>
+        <v>2.992150215750223</v>
       </c>
       <c r="R6">
-        <v>169.535536068938</v>
+        <v>26.929351941752</v>
       </c>
       <c r="S6">
-        <v>0.2309462826962187</v>
+        <v>0.03822396775198528</v>
       </c>
       <c r="T6">
-        <v>0.2309462826962187</v>
+        <v>0.03822396775198528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>78.478283</v>
       </c>
       <c r="I7">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J7">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.02498966666666667</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N7">
-        <v>0.07496900000000001</v>
+        <v>2.160286</v>
       </c>
       <c r="O7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q7">
-        <v>0.6537153775807779</v>
+        <v>18.83728178543756</v>
       </c>
       <c r="R7">
-        <v>5.883438398227001</v>
+        <v>169.535536068938</v>
       </c>
       <c r="S7">
-        <v>0.008014592450931415</v>
+        <v>0.2406415452377582</v>
       </c>
       <c r="T7">
-        <v>0.008014592450931415</v>
+        <v>0.2406415452377581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.654081666666666</v>
+        <v>26.15942766666667</v>
       </c>
       <c r="H8">
-        <v>10.962245</v>
+        <v>78.478283</v>
       </c>
       <c r="I8">
-        <v>0.0437535858070084</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J8">
-        <v>0.0437535858070084</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2315733333333333</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N8">
-        <v>0.69472</v>
+        <v>0.100736</v>
       </c>
       <c r="O8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q8">
-        <v>0.8461878718222221</v>
+        <v>0.8783987018097779</v>
       </c>
       <c r="R8">
-        <v>7.6156908464</v>
+        <v>7.905588316288001</v>
       </c>
       <c r="S8">
-        <v>0.01037431757330519</v>
+        <v>0.01122132287163403</v>
       </c>
       <c r="T8">
-        <v>0.01037431757330519</v>
+        <v>0.01122132287163403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.654081666666666</v>
+        <v>26.15942766666667</v>
       </c>
       <c r="H9">
-        <v>10.962245</v>
+        <v>78.478283</v>
       </c>
       <c r="I9">
-        <v>0.0437535858070084</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J9">
-        <v>0.0437535858070084</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7200953333333334</v>
+        <v>0.023457</v>
       </c>
       <c r="N9">
-        <v>2.160286</v>
+        <v>0.070371</v>
       </c>
       <c r="O9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q9">
-        <v>2.631287155785555</v>
+        <v>0.6136216947770001</v>
       </c>
       <c r="R9">
-        <v>23.68158440207</v>
+        <v>5.522595252993001</v>
       </c>
       <c r="S9">
-        <v>0.03225974927044734</v>
+        <v>0.007838863085686931</v>
       </c>
       <c r="T9">
-        <v>0.03225974927044734</v>
+        <v>0.007838863085686931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H10">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I10">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J10">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02498966666666667</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N10">
-        <v>0.07496900000000001</v>
+        <v>0.343144</v>
       </c>
       <c r="O10">
-        <v>0.02558690773812063</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P10">
-        <v>0.02558690773812063</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q10">
-        <v>0.09131428282277779</v>
+        <v>0.7205601551608889</v>
       </c>
       <c r="R10">
-        <v>0.8218285454050001</v>
+        <v>6.485041396448</v>
       </c>
       <c r="S10">
-        <v>0.001119518963255868</v>
+        <v>0.009204975067513298</v>
       </c>
       <c r="T10">
-        <v>0.001119518963255868</v>
+        <v>0.009204975067513296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.356388</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H11">
-        <v>121.069164</v>
+        <v>18.898892</v>
       </c>
       <c r="I11">
-        <v>0.4832231039952832</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J11">
-        <v>0.4832231039952833</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2315733333333333</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N11">
-        <v>0.69472</v>
+        <v>2.160286</v>
       </c>
       <c r="O11">
-        <v>0.2371078251520917</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P11">
-        <v>0.2371078251520917</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q11">
-        <v>9.345463290453333</v>
+        <v>4.536334644790222</v>
       </c>
       <c r="R11">
-        <v>84.10916961408002</v>
+        <v>40.827011803112</v>
       </c>
       <c r="S11">
-        <v>0.1145759792515646</v>
+        <v>0.05795053612680983</v>
       </c>
       <c r="T11">
-        <v>0.1145759792515647</v>
+        <v>0.05795053612680982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.356388</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H12">
-        <v>121.069164</v>
+        <v>18.898892</v>
       </c>
       <c r="I12">
-        <v>0.4832231039952832</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J12">
-        <v>0.4832231039952833</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.7200953333333334</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N12">
-        <v>2.160286</v>
+        <v>0.100736</v>
       </c>
       <c r="O12">
-        <v>0.7373052671097876</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P12">
-        <v>0.7373052671097876</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q12">
-        <v>29.06044666898934</v>
+        <v>0.2115331982791111</v>
       </c>
       <c r="R12">
-        <v>261.544020020904</v>
+        <v>1.903798784512</v>
       </c>
       <c r="S12">
-        <v>0.3562829397648629</v>
+        <v>0.002702283497310224</v>
       </c>
       <c r="T12">
-        <v>0.356282939764863</v>
+        <v>0.002702283497310224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.356388</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H13">
-        <v>121.069164</v>
+        <v>18.898892</v>
       </c>
       <c r="I13">
-        <v>0.4832231039952832</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J13">
-        <v>0.4832231039952833</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02498966666666667</v>
+        <v>0.023457</v>
       </c>
       <c r="N13">
-        <v>0.07496900000000001</v>
+        <v>0.070371</v>
       </c>
       <c r="O13">
-        <v>0.02558690773812063</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P13">
-        <v>0.02558690773812063</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q13">
-        <v>1.008492683990667</v>
+        <v>0.147770436548</v>
       </c>
       <c r="R13">
-        <v>9.076434155916003</v>
+        <v>1.329933928932</v>
       </c>
       <c r="S13">
-        <v>0.01236418497885558</v>
+        <v>0.001887730225432991</v>
       </c>
       <c r="T13">
-        <v>0.01236418497885559</v>
+        <v>0.001887730225432991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>51.62686066666667</v>
+      </c>
+      <c r="H14">
+        <v>154.880582</v>
+      </c>
+      <c r="I14">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="J14">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1143813333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.343144</v>
+      </c>
+      <c r="O14">
+        <v>0.128300337591142</v>
+      </c>
+      <c r="P14">
+        <v>0.1283003375911419</v>
+      </c>
+      <c r="Q14">
+        <v>5.905149158867555</v>
+      </c>
+      <c r="R14">
+        <v>53.146342429808</v>
+      </c>
+      <c r="S14">
+        <v>0.07543679786899404</v>
+      </c>
+      <c r="T14">
+        <v>0.07543679786899403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>51.62686066666667</v>
+      </c>
+      <c r="H15">
+        <v>154.880582</v>
+      </c>
+      <c r="I15">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="J15">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.160286</v>
+      </c>
+      <c r="O15">
+        <v>0.8077233554817153</v>
+      </c>
+      <c r="P15">
+        <v>0.8077233554817151</v>
+      </c>
+      <c r="Q15">
+        <v>37.17626144071689</v>
+      </c>
+      <c r="R15">
+        <v>334.586352966452</v>
+      </c>
+      <c r="S15">
+        <v>0.4749174058739704</v>
+      </c>
+      <c r="T15">
+        <v>0.4749174058739703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>51.62686066666667</v>
+      </c>
+      <c r="H16">
+        <v>154.880582</v>
+      </c>
+      <c r="I16">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="J16">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.100736</v>
+      </c>
+      <c r="O16">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P16">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q16">
+        <v>1.733561145372444</v>
+      </c>
+      <c r="R16">
+        <v>15.602050308352</v>
+      </c>
+      <c r="S16">
+        <v>0.02214580837820561</v>
+      </c>
+      <c r="T16">
+        <v>0.02214580837820561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>51.62686066666667</v>
+      </c>
+      <c r="H17">
+        <v>154.880582</v>
+      </c>
+      <c r="I17">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="J17">
+        <v>0.5879703770491272</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.023457</v>
+      </c>
+      <c r="N17">
+        <v>0.070371</v>
+      </c>
+      <c r="O17">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P17">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q17">
+        <v>1.211011270658</v>
+      </c>
+      <c r="R17">
+        <v>10.899101435922</v>
+      </c>
+      <c r="S17">
+        <v>0.0154703649279573</v>
+      </c>
+      <c r="T17">
+        <v>0.0154703649279573</v>
       </c>
     </row>
   </sheetData>
